--- a/data/trans_dic/P1421-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1421-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04719893159550902</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09223272160492635</v>
+        <v>0.09223272160492633</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01945803147173954</v>
@@ -697,7 +697,7 @@
         <v>0.03227974838412377</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06921723722977995</v>
+        <v>0.06921723722977997</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007474568518877804</v>
+        <v>0.008084457395192023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004125139521160032</v>
+        <v>0.004071435804707412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0088080857132115</v>
+        <v>0.009114397971924081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03118089266690999</v>
+        <v>0.03183447166770405</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01381795731423318</v>
+        <v>0.01437295793118128</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05272800880057265</v>
+        <v>0.05327566178995872</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03459929070789401</v>
+        <v>0.03218710755459744</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07661252283490765</v>
+        <v>0.07582715020045631</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01306586776960112</v>
+        <v>0.01261705541953717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03012739212037012</v>
+        <v>0.03103201764790601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02378459385882079</v>
+        <v>0.0230234850562674</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05888260297712401</v>
+        <v>0.05785782086764833</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02828713765239086</v>
+        <v>0.02967334226742451</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01950986639153453</v>
+        <v>0.01909258441454595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03085923527154891</v>
+        <v>0.03106874888778033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06126446186041358</v>
+        <v>0.06188682074716119</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03725786854495079</v>
+        <v>0.03590458771839264</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09527838036438692</v>
+        <v>0.09338400831562486</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06565291994116586</v>
+        <v>0.06578989134599625</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1112304319901369</v>
+        <v>0.1103490907472514</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02881168272535516</v>
+        <v>0.0282385823550058</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05313722410836771</v>
+        <v>0.05309544871648712</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04280195507776621</v>
+        <v>0.04327356806253404</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08257690385744337</v>
+        <v>0.08236191148134375</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03460786106040147</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06777726752230928</v>
+        <v>0.06777726752230927</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01686658835195065</v>
+        <v>0.01608136668971592</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005218087390593091</v>
+        <v>0.005519331792534464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004828537522328993</v>
+        <v>0.004954569930655292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02721782814565286</v>
+        <v>0.02685510588835133</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03877076240358729</v>
+        <v>0.0383718588777154</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03556928129107909</v>
+        <v>0.03520815430392103</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04473581938270219</v>
+        <v>0.04618417333686894</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08262999442500678</v>
+        <v>0.08218446975436297</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03082485580215795</v>
+        <v>0.02998165859705587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02178686208520456</v>
+        <v>0.02176515198394567</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0266900044029565</v>
+        <v>0.02630822305239576</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05814697475899869</v>
+        <v>0.05801872290341071</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03845245629877003</v>
+        <v>0.03737957589633215</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01928446999260705</v>
+        <v>0.01931567364545948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01699700931269162</v>
+        <v>0.01768766892165887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05425645900137044</v>
+        <v>0.05303421793219897</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06812624530395824</v>
+        <v>0.06691477729639501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06233120257802124</v>
+        <v>0.06239703583434928</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07651108790881325</v>
+        <v>0.07772944897139414</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1133906238015153</v>
+        <v>0.1129685657968409</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04774705752841324</v>
+        <v>0.0475285858873658</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03612061176009659</v>
+        <v>0.03679250789799953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04396884169092818</v>
+        <v>0.04294069244540912</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07851862453813355</v>
+        <v>0.07862480085337741</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0116634188559548</v>
+        <v>0.01160075156670337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004976752020459768</v>
+        <v>0.005116496983095292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006881708724665422</v>
+        <v>0.006605435741234703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03227972068872074</v>
+        <v>0.03264002015297023</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04844736574102276</v>
+        <v>0.04939869846996009</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03571179854084716</v>
+        <v>0.03716091924182253</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03494889454445353</v>
+        <v>0.03471307435374432</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.113362204492619</v>
+        <v>0.1142539266226366</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03423547755908903</v>
+        <v>0.03376340185086025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02353350919632571</v>
+        <v>0.02345709610255124</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0236934181060733</v>
+        <v>0.02356484523937323</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07817688839056229</v>
+        <v>0.07768950885320289</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03408992015241744</v>
+        <v>0.03465201238153849</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02271842574335474</v>
+        <v>0.02255423652723533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02613781089705792</v>
+        <v>0.02539418768840391</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06325906848866199</v>
+        <v>0.0632714771917349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08620089202602935</v>
+        <v>0.08698859199479253</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07021151765768188</v>
+        <v>0.07378669548991611</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06632398198522109</v>
+        <v>0.06585078076183298</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1560347848248896</v>
+        <v>0.158653992122546</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05653549575487007</v>
+        <v>0.05585442367848399</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04336310666662144</v>
+        <v>0.04369005557836733</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04211699766896707</v>
+        <v>0.04180640045109954</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1051464475318861</v>
+        <v>0.1039267036989338</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02184170321438512</v>
+        <v>0.02212560445050424</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01004740502694716</v>
+        <v>0.0101915088560634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009880054866963342</v>
+        <v>0.009305579023455123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03972877530074797</v>
+        <v>0.0407471149671628</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06313037364731448</v>
+        <v>0.06381073892052021</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0373441031383771</v>
+        <v>0.03790002176228696</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04627311224454081</v>
+        <v>0.0460540936258092</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1084898013984352</v>
+        <v>0.1106128538220136</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04758942590967657</v>
+        <v>0.04574773646234615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02611575046911925</v>
+        <v>0.02603006179438603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03047562169855086</v>
+        <v>0.03068855494493121</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08066580732032816</v>
+        <v>0.08020377239361672</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04369021361664713</v>
+        <v>0.04355191439340571</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02690041313842693</v>
+        <v>0.02697157767899392</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02687919145776597</v>
+        <v>0.02567415030431466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07409020121725382</v>
+        <v>0.07274671729766127</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09753306536424565</v>
+        <v>0.09647785117779292</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06249298505319437</v>
+        <v>0.06502056316849146</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07886241614482926</v>
+        <v>0.07839589930464215</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1456734240253707</v>
+        <v>0.1491199132320935</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06853853383433293</v>
+        <v>0.0664853600390501</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04201424482189409</v>
+        <v>0.04319220912011137</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04930986538099338</v>
+        <v>0.04900623056493478</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1053562767090417</v>
+        <v>0.1061262415983355</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03495861104430423</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08029384148151097</v>
+        <v>0.08029384148151099</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008692509128400736</v>
+        <v>0.008708487229741897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01073295889843619</v>
+        <v>0.01025038830810581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03786351220285165</v>
+        <v>0.03871754137461665</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04641144903311164</v>
+        <v>0.04575819345754485</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04737230835116891</v>
+        <v>0.047861442112493</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1043835923584472</v>
+        <v>0.1042560515920733</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02866467287516117</v>
+        <v>0.02923184381377163</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03054471936183459</v>
+        <v>0.03086069574819027</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07435207603476442</v>
+        <v>0.07461281099449839</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01599258400972419</v>
+        <v>0.01660179312838948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01914065159788012</v>
+        <v>0.01871196765547217</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05365030135680382</v>
+        <v>0.05348538036224133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06183879413671193</v>
+        <v>0.06131481386291485</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06348332413933093</v>
+        <v>0.0632430416923314</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1227200848699631</v>
+        <v>0.1229930431725637</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03746070802084724</v>
+        <v>0.03757794096337243</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03985214285191605</v>
+        <v>0.04010267353608451</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08641582554305552</v>
+        <v>0.08629134331677588</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5187</v>
+        <v>5611</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2902</v>
+        <v>2864</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5944</v>
+        <v>6150</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21537</v>
+        <v>21988</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9512</v>
+        <v>9894</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36754</v>
+        <v>37136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23280</v>
+        <v>21657</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>56136</v>
+        <v>55560</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18062</v>
+        <v>17441</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>42194</v>
+        <v>43461</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32053</v>
+        <v>31027</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>83815</v>
+        <v>82357</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19632</v>
+        <v>20594</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13725</v>
+        <v>13431</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20824</v>
+        <v>20965</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42316</v>
+        <v>42746</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25646</v>
+        <v>24715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>66414</v>
+        <v>65093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44174</v>
+        <v>44266</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>81501</v>
+        <v>80855</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39828</v>
+        <v>39036</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>74420</v>
+        <v>74361</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>57682</v>
+        <v>58317</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>117543</v>
+        <v>117236</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16222</v>
+        <v>15467</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5312</v>
+        <v>5618</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4937</v>
+        <v>5066</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28549</v>
+        <v>28169</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>37545</v>
+        <v>37159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36600</v>
+        <v>36228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46656</v>
+        <v>48166</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>88368</v>
+        <v>87891</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59498</v>
+        <v>57870</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44596</v>
+        <v>44552</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>55124</v>
+        <v>54336</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>123176</v>
+        <v>122904</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36984</v>
+        <v>35952</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19631</v>
+        <v>19662</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17378</v>
+        <v>18084</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56911</v>
+        <v>55628</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>65973</v>
+        <v>64800</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64137</v>
+        <v>64205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>79794</v>
+        <v>81065</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>121265</v>
+        <v>120813</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>92161</v>
+        <v>91739</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>73936</v>
+        <v>75311</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>90811</v>
+        <v>88687</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>166331</v>
+        <v>166555</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7914</v>
+        <v>7871</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3771</v>
+        <v>3876</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5227</v>
+        <v>5017</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25863</v>
+        <v>26152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33130</v>
+        <v>33781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27754</v>
+        <v>28881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27435</v>
+        <v>27250</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>91833</v>
+        <v>92556</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>46641</v>
+        <v>45998</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36119</v>
+        <v>36002</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>36596</v>
+        <v>36397</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>125967</v>
+        <v>125181</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23130</v>
+        <v>23512</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17212</v>
+        <v>17088</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19853</v>
+        <v>19288</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50684</v>
+        <v>50694</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58948</v>
+        <v>59486</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54567</v>
+        <v>57345</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52065</v>
+        <v>51694</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126402</v>
+        <v>128524</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>77021</v>
+        <v>76093</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>66554</v>
+        <v>67055</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>65052</v>
+        <v>64573</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>169423</v>
+        <v>167458</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20580</v>
+        <v>20847</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9512</v>
+        <v>9648</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9263</v>
+        <v>8725</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39221</v>
+        <v>40227</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65568</v>
+        <v>66275</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39282</v>
+        <v>39867</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>48299</v>
+        <v>48070</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>121182</v>
+        <v>123553</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94267</v>
+        <v>90619</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>52195</v>
+        <v>52024</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>60383</v>
+        <v>60805</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>169738</v>
+        <v>168766</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41166</v>
+        <v>41036</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25467</v>
+        <v>25534</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25201</v>
+        <v>24071</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73144</v>
+        <v>71818</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101299</v>
+        <v>100203</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>65736</v>
+        <v>68395</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>82315</v>
+        <v>81828</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>162715</v>
+        <v>166565</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>135763</v>
+        <v>131696</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>83970</v>
+        <v>86324</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>97700</v>
+        <v>97098</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>221692</v>
+        <v>223313</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29778</v>
+        <v>29833</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36431</v>
+        <v>34793</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>133585</v>
+        <v>136598</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>164997</v>
+        <v>162675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>167913</v>
+        <v>169647</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>389271</v>
+        <v>388796</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>200104</v>
+        <v>204063</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>211947</v>
+        <v>214139</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>539596</v>
+        <v>541488</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54787</v>
+        <v>56874</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>64970</v>
+        <v>63515</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>189282</v>
+        <v>188700</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>219843</v>
+        <v>217980</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>225019</v>
+        <v>224168</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>457652</v>
+        <v>458670</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>261507</v>
+        <v>262326</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>276530</v>
+        <v>278268</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>627146</v>
+        <v>626243</v>
       </c>
     </row>
     <row r="24">
